--- a/INDIVIDUAL_ARGUMENTS/spanking_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/spanking_contra.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>#id</t>
   </si>
@@ -29,78 +28,117 @@
     <t>A parent shouldn't use spanking as an option to discipline a child because they might grow up traumatized and they might feel unloved since they would get spanked a lot, that will cause a low self of esteem. Also spanking shouldn't be an option because at that moment the parent would be full with anger and they wouldn't be thinking logically.</t>
   </si>
   <si>
+    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
+  </si>
+  <si>
     <t>arg335091</t>
   </si>
   <si>
     <t>Parents shouldn't use spanking as an option to discipline it just makes the child get mad than to see what they did wrong.</t>
   </si>
   <si>
+    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334961</t>
   </si>
   <si>
     <t>I say no because spanking doesn't really solve the problem, anyone can get over a spanking fast, and do whatever they did again. So its better to be a bit strict, than to abuse a kid.</t>
   </si>
   <si>
+    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335032</t>
   </si>
   <si>
     <t>Spanking should never be the answer. Spanking should be the LAST option.  Yes, I agree that if it gets to a certain point you can lightly spank the kid, but never to the point where you're beating the kid.</t>
   </si>
   <si>
+    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336204</t>
   </si>
   <si>
     <t>I strongly believe parents should not use physical punishment like spanking to discipline their child. The child will obey if they have a strong healthy relationship with a parent, if they have gained their respect. The parents should have a friendly relationship with their child and the child will soon respect them and agree to what their parents decide although they may not like it. They will learn that the parents know whats best for them.</t>
   </si>
   <si>
+    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+  </si>
+  <si>
     <t>arg334958</t>
   </si>
   <si>
     <t>No, because they don't really understand what they are doing since they are barely growing up and still trying to understand the world.</t>
   </si>
   <si>
+    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335030</t>
   </si>
   <si>
     <t>Some kids don't learn by spanking them..So why waste your time on that, when you can always take something valuable away from them.</t>
   </si>
   <si>
+    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334943</t>
   </si>
   <si>
     <t>No because spanking might effects the relationship between the child and parents. And Children can pick up on the parents attitude acting violent. There are better ways to solve problems, for example using the other techniques.</t>
   </si>
   <si>
+    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334927</t>
   </si>
   <si>
     <t>Children should not be spanked because they should be treated as equals lol I wouldn't want my child to hit me.</t>
   </si>
   <si>
+    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335095</t>
   </si>
   <si>
     <t>Spanking should not be an option to discipline a child, parents have a lot other options before spanking. Its better to talk to them about what they did wrong and solve the problem in a proper way.</t>
   </si>
   <si>
+    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335086</t>
   </si>
   <si>
     <t>The child is young and doesn't know what is wrong and what is right.</t>
   </si>
   <si>
+    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334918</t>
   </si>
   <si>
     <t>Because if the child is young they dont know whats wrong and whats right the parent needs to teach the child from whats wrong and from whats right.</t>
   </si>
   <si>
+    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334978</t>
   </si>
   <si>
     <t>I don't think that spanking should be necessary,spanking would last just a minute, but punishing could last up to 2 or 3 weeks or maybe more.</t>
   </si>
   <si>
+    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335096</t>
   </si>
   <si>
@@ -110,124 +148,187 @@
     <t>Nope. I believe it shouldnt be done just to discipline a child. Parents could just scold their child just so they would stop what they are doing wrong. Hitting is not really a solution because aside hurting a child emotionally, it also hurts them physically. Kids wouldnt learn the value of respect for their parents because they would only learn how to be scared. They wont do the wrong action again next time, not because they've learned their lesson, but because they are just scared that their parents would hit them</t>
   </si>
   <si>
+    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+  </si>
+  <si>
     <t>arg335084</t>
   </si>
   <si>
     <t>I think parents should not spank because there's other way to make them behave.</t>
   </si>
   <si>
+    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336894</t>
   </si>
   <si>
     <t>It is unnecessary, as well as being quite unrelated to how a child develops into an adult. There are children who were spanked growing up who grow up to be terrible adults, and children who were not spanked growing up who become good or even great adults.</t>
   </si>
   <si>
+    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
+  </si>
+  <si>
     <t>arg336209</t>
   </si>
   <si>
     <t>No because if we hit our children their gonna think that we don't love them.</t>
   </si>
   <si>
+    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335112</t>
   </si>
   <si>
     <t>Honestly, I Think It's better to try a different option besides spanking that can affect a child's way of thinking and may get depressed.</t>
   </si>
   <si>
+    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335104</t>
   </si>
   <si>
     <t>Because spanking is mostly out of anger and can be for more then what your kid had done like if some one else made thm mad thy let it all out on thm.</t>
   </si>
   <si>
+    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334891</t>
   </si>
   <si>
     <t>Honestly, I believe that spanking shouldn't be accepted to discipline a child. There are many options that parents can take. That's why we have a mouth to speak and say what's right from wrong and wrong from right.</t>
   </si>
   <si>
+    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335129</t>
   </si>
   <si>
     <t>I don't think anybody would have liked to get spanked by there parents therefore , spanking shouldn't be an Option.</t>
   </si>
   <si>
+    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336048</t>
   </si>
   <si>
     <t>People should not hit there kids because the kid will think it is OK to hit someone else back like for an example at school they will end up fighting and abusive to others.</t>
   </si>
   <si>
+    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336179</t>
   </si>
   <si>
     <t>No because hitting your child could mentally scar them for life. also it can make them think hitting their kids is alright.</t>
   </si>
   <si>
+    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
+  </si>
+  <si>
     <t>arg336172</t>
   </si>
   <si>
     <t>Not everything begins with violence, parents shouldn't hit kids for discipline, only if its necessary .</t>
   </si>
   <si>
+    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335114</t>
   </si>
   <si>
     <t>There's some parents that spank their children for every little thing. And that is not right. They will always be scared of them.</t>
   </si>
   <si>
+    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334926</t>
   </si>
   <si>
     <t>No child should get hit. There are different punishments you could give your child.</t>
   </si>
   <si>
+    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334929</t>
   </si>
   <si>
     <t>No, i don't think they should be spanked because in my opinion i don't think it works, maybe it will once, but as they grow up it's not a good technique to do, because then y'all wont have a good relationship and the relationship will not grow. There is other techniques they can learn from.</t>
   </si>
   <si>
+    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg335132</t>
   </si>
   <si>
     <t>I disagree on the parents use spaking as an option to dicipline because the childrens are not going to be scare of what their parents are going to them and also because if you do that to your childrens are learning what their parents show them and also because that is not going to help that much the childrens</t>
   </si>
   <si>
+    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334968</t>
   </si>
   <si>
     <t>Physical abuse towards children causes them to fear their parents and may cause a stutter.</t>
   </si>
   <si>
+    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334907</t>
   </si>
   <si>
     <t>Spanking children will bad for their development. We always teach children not to hurt others, but we do it on our children . It is not make sense.</t>
   </si>
   <si>
+    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334960</t>
   </si>
   <si>
     <t>Parents should not rely on spanking their children when they are misbehaving. Although, it may sometimes seem necessary to spank your children, in my opinion it should always be the last resort.</t>
   </si>
   <si>
+    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334975</t>
   </si>
   <si>
     <t>no, spanking is not the solution to your problems...  u should talk to the kid with love and understanding, for them to be able to understand they are doing wrong..</t>
   </si>
   <si>
+    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg334890</t>
   </si>
   <si>
     <t>No, because they don't always need to get spanked for everything they do. Their parents need to teach them different ways.</t>
   </si>
   <si>
+    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg336029</t>
   </si>
   <si>
     <t>does this make sense: you steal a candy bar from school then your parents steal your favorite toy. you stole something and were disciplined by getting something stolen. hm. same thing applies to this. you hit somebody then you get hit. you get told not to hit somebody, then told not to hit, then hit by the saame person</t>
+  </si>
+  <si>
+    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -235,40 +336,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -276,361 +381,735 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="B1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B23" activeCellId="0" pane="topLeft" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="76.53571428571431"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c s="0" r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="C19" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c s="0" r="B23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="C23" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c s="0" r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c s="0" r="B25" t="s">
         <v>70</v>
       </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="34" ht="12.8" spans="1:3">
+      <c s="0" r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c s="0" r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="35" ht="12.8" spans="1:3">
+      <c s="0" r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c s="0" r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="36" ht="12.8" spans="1:3">
+      <c s="0" r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c s="0" r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/spanking_contra.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/spanking_contra.xlsx
@@ -28,7 +28,7 @@
     <t>A parent shouldn't use spanking as an option to discipline a child because they might grow up traumatized and they might feel unloved since they would get spanked a lot, that will cause a low self of esteem. Also spanking shouldn't be an option because at that moment the parent would be full with anger and they wouldn't be thinking logically.</t>
   </si>
   <si>
-    <t>344,1.5,15.23,0.0,0.0,1.0,0.0,0.0,0.0,0.3,0.3,0.3,0.29,0.5</t>
+    <t>30.5,5.64,1.89,1.17,1.61,1.5,15.23,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.07,0.21,0.03,0.03,0.07,0.03,0.2,0.5,0.5,7.0</t>
   </si>
   <si>
     <t>arg335091</t>
@@ -37,7 +37,7 @@
     <t>Parents shouldn't use spanking as an option to discipline it just makes the child get mad than to see what they did wrong.</t>
   </si>
   <si>
-    <t>122,0.0,13.08,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.3,0.3,0.0,0.0</t>
+    <t>23.0,5.3,0.71,0.59,1.22,0.0,13.08,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.09,0.3,0.09,0.09,0.09,0.04,0.0,0.0,0.0,14.5</t>
   </si>
   <si>
     <t>arg334961</t>
@@ -46,7 +46,7 @@
     <t>I say no because spanking doesn't really solve the problem, anyone can get over a spanking fast, and do whatever they did again. So its better to be a bit strict, than to abuse a kid.</t>
   </si>
   <si>
-    <t>183,0.5,11.14,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.15,0.25,0.0,0.0</t>
+    <t>18.0,5.08,1.12,1.17,0.95,0.5,11.14,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.08,0.25,0.03,0.03,0.08,0.0,0.0,0.0,0.0,6.88</t>
   </si>
   <si>
     <t>arg335032</t>
@@ -55,7 +55,7 @@
     <t>Spanking should never be the answer. Spanking should be the LAST option.  Yes, I agree that if it gets to a certain point you can lightly spank the kid, but never to the point where you're beating the kid.</t>
   </si>
   <si>
-    <t>205,0.33,11.47,0.0,0.0,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>13.0,5.26,1.21,1.76,0.69,0.33,11.47,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.18,0.08,0.18,0.08,0.08,0.08,0.0,0.0,0.0,0.0,7.63</t>
   </si>
   <si>
     <t>arg336204</t>
@@ -64,7 +64,7 @@
     <t>I strongly believe parents should not use physical punishment like spanking to discipline their child. The child will obey if they have a strong healthy relationship with a parent, if they have gained their respect. The parents should have a friendly relationship with their child and the child will soon respect them and agree to what their parents decide although they may not like it. They will learn that the parents know whats best for them.</t>
   </si>
   <si>
-    <t>446,0.25,16.76,0.0,0.01,1.0,0.0,0.0,0.0,0.25,0.35,0.35,0.14,0.0</t>
+    <t>19.0,5.87,2.36,2.34,1.0,0.25,16.76,0.0,0.01,1.0,0,0,0.0,0.0,0.0,0.18,0.05,0.21,0.07,0.07,0.13,0.04,0.0,0.0,0.0,6.82</t>
   </si>
   <si>
     <t>arg334958</t>
@@ -73,7 +73,7 @@
     <t>No, because they don't really understand what they are doing since they are barely growing up and still trying to understand the world.</t>
   </si>
   <si>
-    <t>135,1.0,16.15,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.1,0.1,0.0,0.0</t>
+    <t>23.0,5.87,0.71,0.59,1.22,1.0,16.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.09,0.0,0.35,0.13,0.13,0.13,0.04,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>arg335030</t>
@@ -82,7 +82,7 @@
     <t>Some kids don't learn by spanking them..So why waste your time on that, when you can always take something valuable away from them.</t>
   </si>
   <si>
-    <t>131,0.0,14.12,0.0,0.04,3.0,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>23.0,5.7,0.71,0.59,1.22,0.0,14.12,0.0,0.04,3.0,0,0,0.0,0.0,0.0,0.17,0.04,0.22,0.09,0.09,0.09,0.0,0.0,0.0,0.0,7.71</t>
   </si>
   <si>
     <t>arg334943</t>
@@ -91,7 +91,7 @@
     <t>No because spanking might effects the relationship between the child and parents. And Children can pick up on the parents attitude acting violent. There are better ways to solve problems, for example using the other techniques.</t>
   </si>
   <si>
-    <t>227,0.33,18.16,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.35,0.35,0.0,0.0</t>
+    <t>12.0,6.31,1.12,1.76,0.63,0.33,18.16,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.06,0.19,0.0,0.0,0.0,0.06,0.0,0.0,0.0,8.36</t>
   </si>
   <si>
     <t>arg334927</t>
@@ -100,7 +100,7 @@
     <t>Children should not be spanked because they should be treated as equals lol I wouldn't want my child to hit me.</t>
   </si>
   <si>
-    <t>111,1.0,12.75,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>21.0,5.29,0.65,0.59,1.11,1.0,12.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.0,0.38,0.05,0.05,0.14,0.0,0.0,0.0,0.0,11.43</t>
   </si>
   <si>
     <t>arg335095</t>
@@ -109,7 +109,7 @@
     <t>Spanking should not be an option to discipline a child, parents have a lot other options before spanking. Its better to talk to them about what they did wrong and solve the problem in a proper way.</t>
   </si>
   <si>
-    <t>197,0.0,13.43,0.0,0.0,1.0,0.0,0.0,0.0,0.25,0.35,0.4,0.0,0.0</t>
+    <t>18.5,5.32,1.15,1.17,0.98,0.0,13.43,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.11,0.22,0.03,0.03,0.08,0.03,0.0,0.0,0.0,11.09</t>
   </si>
   <si>
     <t>arg335086</t>
@@ -118,7 +118,7 @@
     <t>The child is young and doesn't know what is wrong and what is right.</t>
   </si>
   <si>
-    <t>68,0.0,8.97,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>14.0,4.86,0.43,0.59,0.74,0.0,8.97,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.07,0.21,0.36,0.0,0.0,0.0,0.0,0.0,0.0,0.0,11.33</t>
   </si>
   <si>
     <t>arg334918</t>
@@ -127,7 +127,7 @@
     <t>Because if the child is young they dont know whats wrong and whats right the parent needs to teach the child from whats wrong and from whats right.</t>
   </si>
   <si>
-    <t>147,1.0,13.8,0.0,0.18,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>28.0,5.25,0.87,0.59,1.48,1.0,13.8,0.0,0.18,1.0,0,0,0.0,0.0,0.0,0.14,0.14,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,12.8</t>
   </si>
   <si>
     <t>arg334978</t>
@@ -136,7 +136,7 @@
     <t>I don't think that spanking should be necessary,spanking would last just a minute, but punishing could last up to 2 or 3 weeks or maybe more.</t>
   </si>
   <si>
-    <t>141,1.0,14.06,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>26.0,5.42,0.81,0.59,1.37,1.0,14.06,0.0,0.04,1.0,2,0,0.0,0.0,0.0,0.08,0.08,0.19,0.12,0.12,0.04,0.0,0.0,0.0,0.0,7.0</t>
   </si>
   <si>
     <t>arg335096</t>
@@ -148,7 +148,7 @@
     <t>Nope. I believe it shouldnt be done just to discipline a child. Parents could just scold their child just so they would stop what they are doing wrong. Hitting is not really a solution because aside hurting a child emotionally, it also hurts them physically. Kids wouldnt learn the value of respect for their parents because they would only learn how to be scared. They wont do the wrong action again next time, not because they've learned their lesson, but because they are just scared that their parents would hit them</t>
   </si>
   <si>
-    <t>520,1.0,15.14,0.0,0.02,0.83,0.0,0.0,0.0,0.2,0.5,0.45,0.14,0.5</t>
+    <t>15.17,5.71,2.82,3.52,0.8,1.0,15.14,0.0,0.02,0.83,0,0,0.0,0.0,0.0,0.15,0.07,0.22,0.12,0.12,0.15,0.03,0.4,0.5,0.5,5.8</t>
   </si>
   <si>
     <t>arg335084</t>
@@ -157,7 +157,7 @@
     <t>I think parents should not spank because there's other way to make them behave.</t>
   </si>
   <si>
-    <t>79,1.0,14.01,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>14.0,5.64,0.43,0.59,0.74,1.0,14.01,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.14,0.07,0.29,0.07,0.07,0.14,0.0,0.0,0.0,0.0,20.0</t>
   </si>
   <si>
     <t>arg336894</t>
@@ -166,7 +166,7 @@
     <t>It is unnecessary, as well as being quite unrelated to how a child develops into an adult. There are children who were spanked growing up who grow up to be terrible adults, and children who were not spanked growing up who become good or even great adults.</t>
   </si>
   <si>
-    <t>255,0.0,14.34,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.14,0.0</t>
+    <t>23.5,5.43,1.46,1.17,1.24,0.0,14.34,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.3,0.11,0.11,0.02,0.02,0.2,0.0,0.0,7.73</t>
   </si>
   <si>
     <t>arg336209</t>
@@ -175,7 +175,7 @@
     <t>No because if we hit our children their gonna think that we don't love them.</t>
   </si>
   <si>
-    <t>76,1.0,9.18,0.0,0.07,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>15.0,5.07,0.46,0.59,0.79,1.0,9.18,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.13,0.0,0.27,0.0,0.0,0.27,0.0,0.0,0.0,0.0,6.75</t>
   </si>
   <si>
     <t>arg335112</t>
@@ -184,7 +184,7 @@
     <t>Honestly, I Think It's better to try a different option besides spanking that can affect a child's way of thinking and may get depressed.</t>
   </si>
   <si>
-    <t>137,1.0,15.06,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>24.0,5.71,0.74,0.59,1.27,1.0,15.06,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.08,0.13,0.25,0.0,0.0,0.04,0.0,0.0,0.0,0.0,8.17</t>
   </si>
   <si>
     <t>arg335104</t>
@@ -193,7 +193,7 @@
     <t>Because spanking is mostly out of anger and can be for more then what your kid had done like if some one else made thm mad thy let it all out on thm.</t>
   </si>
   <si>
-    <t>149,1.0,9.67,0.0,0.06,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>33.0,4.52,1.02,0.59,1.74,1.0,9.67,0.0,0.06,1.0,0,0,0.0,0.0,0.0,0.12,0.12,0.18,0.09,0.09,0.06,0.0,0.0,0.0,0.0,7.43</t>
   </si>
   <si>
     <t>arg334891</t>
@@ -202,7 +202,7 @@
     <t>Honestly, I believe that spanking shouldn't be accepted to discipline a child. There are many options that parents can take. That's why we have a mouth to speak and say what's right from wrong and wrong from right.</t>
   </si>
   <si>
-    <t>214,0.0,13.27,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.3,0.0,0.0</t>
+    <t>12.67,5.63,1.18,1.76,0.67,0.0,13.27,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.11,0.08,0.26,0.03,0.03,0.05,0.03,0.0,0.0,0.0,11.5</t>
   </si>
   <si>
     <t>arg335129</t>
@@ -211,7 +211,7 @@
     <t>I don't think anybody would have liked to get spanked by there parents therefore , spanking shouldn't be an Option.</t>
   </si>
   <si>
-    <t>115,1.0,15.45,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>20.0,5.75,0.62,0.59,1.06,1.0,15.45,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.0,0.4,0.05,0.05,0.05,0.0,0.0,0.0,0.0,23.33</t>
   </si>
   <si>
     <t>arg336048</t>
@@ -220,7 +220,7 @@
     <t>People should not hit there kids because the kid will think it is OK to hit someone else back like for an example at school they will end up fighting and abusive to others.</t>
   </si>
   <si>
-    <t>172,1.0,12.9,0.0,0.0,1.0,0.0,0.03,0.0,0.05,0.1,0.15,0.0,0.0</t>
+    <t>34.0,5.06,1.05,0.59,1.8,1.0,12.9,0.0,0.0,1.0,0,0,0.0,0.03,0.0,0.12,0.06,0.21,0.12,0.12,0.06,0.0,0.0,0.0,0.0,3.38</t>
   </si>
   <si>
     <t>arg336179</t>
@@ -229,7 +229,7 @@
     <t>No because hitting your child could mentally scar them for life. also it can make them think hitting their kids is alright.</t>
   </si>
   <si>
-    <t>123,1.0,13.85,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.14,0.0</t>
+    <t>11.0,5.59,0.68,1.17,0.58,1.0,13.85,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.05,0.27,0.09,0.09,0.23,0.0,0.0,0.0,0.0,6.43</t>
   </si>
   <si>
     <t>arg336172</t>
@@ -238,7 +238,7 @@
     <t>Not everything begins with violence, parents shouldn't hit kids for discipline, only if its necessary .</t>
   </si>
   <si>
-    <t>103,0.0,19.86,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.0,0.0</t>
+    <t>16.0,6.44,0.5,0.59,0.85,0.0,19.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.31,0.13,0.19,0.13,0.13,0.06,0.06,0.0,0.0,0.0,9.67</t>
   </si>
   <si>
     <t>arg335114</t>
@@ -247,7 +247,7 @@
     <t>There's some parents that spank their children for every little thing. And that is not right. They will always be scared of them.</t>
   </si>
   <si>
-    <t>129,0.0,12.04,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>7.67,5.61,0.71,1.76,0.41,0.0,12.04,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.09,0.17,0.09,0.09,0.09,0.0,0.0,0.0,0.0,15.8</t>
   </si>
   <si>
     <t>arg334926</t>
@@ -256,7 +256,7 @@
     <t>No child should get hit. There are different punishments you could give your child.</t>
   </si>
   <si>
-    <t>83,0.0,13.99,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>7.0,5.93,0.43,1.17,0.37,0.0,13.99,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.0,0.0,0.14,0.07,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>arg334929</t>
@@ -265,7 +265,7 @@
     <t>No, i don't think they should be spanked because in my opinion i don't think it works, maybe it will once, but as they grow up it's not a good technique to do, because then y'all wont have a good relationship and the relationship will not grow. There is other techniques they can learn from.</t>
   </si>
   <si>
-    <t>291,1.5,12.61,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.3,0.25,0.0,0.0</t>
+    <t>27.5,5.29,1.7,1.17,1.45,1.5,12.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.13,0.05,0.31,0.09,0.09,0.11,0.04,0.0,0.0,0.0,7.5</t>
   </si>
   <si>
     <t>arg335132</t>
@@ -274,7 +274,7 @@
     <t>I disagree on the parents use spaking as an option to dicipline because the childrens are not going to be scare of what their parents are going to them and also because if you do that to your childrens are learning what their parents show them and also because that is not going to help that much the childrens</t>
   </si>
   <si>
-    <t>310,5.0,14.59,0.0,0.08,0.0,0.0,0.0,0.0,0.15,0.25,0.25,0.0,0.0</t>
+    <t>59.0,5.25,1.83,0.59,3.12,5.0,14.59,0.0,0.08,0.0,0,0,0.0,0.0,0.0,0.14,0.02,0.27,0.08,0.08,0.12,0.0,0.0,0.0,0.0,7.33</t>
   </si>
   <si>
     <t>arg334968</t>
@@ -283,7 +283,7 @@
     <t>Physical abuse towards children causes them to fear their parents and may cause a stutter.</t>
   </si>
   <si>
-    <t>90,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.15,0.0,0.0</t>
+    <t>15.0,6.0,0.46,0.59,0.79,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.2,0.0,0.0,0.13,0.0,0.0,0.0,0.0,8.0</t>
   </si>
   <si>
     <t>arg334907</t>
@@ -292,7 +292,7 @@
     <t>Spanking children will bad for their development. We always teach children not to hurt others, but we do it on our children . It is not make sense.</t>
   </si>
   <si>
-    <t>147,0.33,11.84,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.15,0.0,0.0</t>
+    <t>9.33,5.25,0.87,1.76,0.49,0.33,11.84,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.21,0.11,0.11,0.21,0.04,0.2,0.0,0.0,8.0</t>
   </si>
   <si>
     <t>arg334960</t>
@@ -301,7 +301,7 @@
     <t>Parents should not rely on spanking their children when they are misbehaving. Although, it may sometimes seem necessary to spank your children, in my opinion it should always be the last resort.</t>
   </si>
   <si>
-    <t>194,0.5,17.26,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>16.0,6.06,0.99,1.17,0.85,0.5,17.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.16,0.09,0.19,0.09,0.09,0.19,0.03,0.0,0.0,0.0,11.29</t>
   </si>
   <si>
     <t>arg334975</t>
@@ -310,7 +310,7 @@
     <t>no, spanking is not the solution to your problems...  u should talk to the kid with love and understanding, for them to be able to understand they are doing wrong..</t>
   </si>
   <si>
-    <t>164,0.0,13.59,0.0,0.0,5.0,0.0,0.0,0.0,0.05,0.25,0.25,0.0,0.0</t>
+    <t>30.0,5.47,0.93,0.59,1.59,0.0,13.59,0.0,0.0,5.0,0,0,0.0,0.0,0.0,0.13,0.07,0.2,0.07,0.07,0.1,0.07,0.0,0.0,0.0,8.5</t>
   </si>
   <si>
     <t>arg334890</t>
@@ -319,7 +319,7 @@
     <t>No, because they don't always need to get spanked for everything they do. Their parents need to teach them different ways.</t>
   </si>
   <si>
-    <t>122,0.5,13.86,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>10.5,5.81,0.65,1.17,0.56,0.5,13.86,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.1,0.05,0.33,0.05,0.05,0.19,0.0,0.0,0.0,0.0,16.0</t>
   </si>
   <si>
     <t>arg336029</t>
@@ -328,7 +328,7 @@
     <t>does this make sense: you steal a candy bar from school then your parents steal your favorite toy. you stole something and were disciplined by getting something stolen. hm. same thing applies to this. you hit somebody then you get hit. you get told not to hit somebody, then told not to hit, then hit by the saame person</t>
   </si>
   <si>
-    <t>320,0.0,12.28,0.0,0.05,0.83,0.0,0.0,0.0,0.05,0.15,0.15,0.0,0.0</t>
+    <t>9.83,5.42,1.83,3.52,0.52,0.0,12.28,0.0,0.05,0.83,0,0,0.0,0.0,0.0,0.22,0.07,0.31,0.1,0.1,0.12,0.02,0.0,0.0,0.0,3.0</t>
   </si>
 </sst>
 </file>
